--- a/results/logistic/dilemma/seed-200/0.1/percents/scores-10.xlsx
+++ b/results/logistic/dilemma/seed-200/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="80">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -46,118 +46,124 @@
     <t>scary</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>sad</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>few</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>down</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>software</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>not</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>honestly</t>
   </si>
   <si>
     <t>own</t>
@@ -166,91 +172,70 @@
     <t>great</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>honestly</t>
+    <t>most</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>live</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>real</t>
   </si>
   <si>
     <t>its</t>
   </si>
   <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>on</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>it</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -626,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS37"/>
+  <dimension ref="A1:BS34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,25 +622,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL1" t="s">
         <v>79</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -857,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.162222736054134</v>
+        <v>0.003354483859759233</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -878,16 +863,16 @@
         <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.1114290150547201</v>
+        <v>0.06110228218382108</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -899,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1082</v>
+        <v>88</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.07012978072847664</v>
+        <v>0.1023805928011137</v>
       </c>
       <c r="U3">
         <v>15</v>
@@ -926,16 +911,16 @@
         <v>123</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC3">
-        <v>0.04790869801889062</v>
+        <v>0.04235598858694933</v>
       </c>
       <c r="AD3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -947,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.05270814426452247</v>
+        <v>0.07425642218653515</v>
       </c>
       <c r="AM3">
         <v>15</v>
@@ -974,16 +959,16 @@
         <v>123</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU3">
-        <v>0.04116379837215205</v>
+        <v>0.0394192960594692</v>
       </c>
       <c r="AV3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -995,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.04533758169902534</v>
+        <v>0.06106260043288293</v>
       </c>
       <c r="BE3">
         <v>15</v>
@@ -1022,16 +1007,16 @@
         <v>123</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BM3">
-        <v>0.03827773689350118</v>
+        <v>0.03838627104764282</v>
       </c>
       <c r="BN3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BO3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1043,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1051,13 +1036,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.06218141805963917</v>
+        <v>0.001918333562015162</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1069,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.08186070906220137</v>
+        <v>0.05661433194558851</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1093,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.04018566312679012</v>
+        <v>0.06802413970425193</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1117,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AC4">
-        <v>0.03888021784276888</v>
+        <v>0.04191793003522608</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1141,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.03611954289036094</v>
+        <v>0.05594227981651553</v>
       </c>
       <c r="AM4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1165,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AU4">
-        <v>0.03623655823831892</v>
+        <v>0.0391688053303707</v>
       </c>
       <c r="AV4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1189,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.03494920684557374</v>
+        <v>0.05027434713341752</v>
       </c>
       <c r="BE4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BF4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1213,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BM4">
-        <v>0.03510536807290886</v>
+        <v>0.0379540386298951</v>
       </c>
       <c r="BN4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1237,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1245,13 +1230,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.05350883618549145</v>
+        <v>0.00167858680221761</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1263,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.05218768938216255</v>
+        <v>0.05625459951659456</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1287,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.03888584043301933</v>
+        <v>0.05925976979679048</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1311,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC5">
-        <v>0.03878524943025568</v>
+        <v>0.04149974437968282</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1335,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.03602462773776118</v>
+        <v>0.04901603756233885</v>
       </c>
       <c r="AM5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1359,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AU5">
-        <v>0.03613695277245099</v>
+        <v>0.03899117237836434</v>
       </c>
       <c r="AV5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -1383,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.03426422068670481</v>
+        <v>0.04421042110361074</v>
       </c>
       <c r="BE5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1407,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="BM5">
-        <v>0.03500377846765228</v>
+        <v>0.0378511093199646</v>
       </c>
       <c r="BN5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BO5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1431,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1439,13 +1424,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05255317834436578</v>
+        <v>0.0008339139117568315</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1457,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.05211606264928199</v>
+        <v>0.05491803029554096</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1481,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>55</v>
+        <v>1089</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.03766962818440843</v>
+        <v>0.03694952117642418</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1505,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC6">
-        <v>0.03695548724253462</v>
+        <v>0.03881148943554887</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1529,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.03485404039853614</v>
+        <v>0.03555780209998466</v>
       </c>
       <c r="AM6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1553,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AU6">
-        <v>0.03535336733539839</v>
+        <v>0.03763695121844029</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1577,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.03366285115650605</v>
+        <v>0.03490490841371958</v>
       </c>
       <c r="BE6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1601,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BM6">
-        <v>0.03466783948615878</v>
+        <v>0.03715135494167807</v>
       </c>
       <c r="BN6">
         <v>4</v>
@@ -1625,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1633,13 +1618,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03320113312970643</v>
+        <v>0.0008164305713629185</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1651,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.04502012802723482</v>
+        <v>0.04571985851448897</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1675,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.03251593707478394</v>
+        <v>0.03499994466909201</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1699,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC7">
-        <v>0.03654395745497745</v>
+        <v>0.03721844193042042</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1723,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL7">
-        <v>0.03238631547090358</v>
+        <v>0.034330253267549</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -1747,19 +1732,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AU7">
-        <v>0.03492174364997069</v>
+        <v>0.03670500511401108</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1771,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD7">
-        <v>0.03233147652720176</v>
+        <v>0.0348210589556472</v>
       </c>
       <c r="BE7">
         <v>2</v>
@@ -1795,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BM7">
-        <v>0.03422761786338029</v>
+        <v>0.03649273189652925</v>
       </c>
       <c r="BN7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1819,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1827,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03269144894777275</v>
+        <v>0.0006398928114510518</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1845,37 +1830,37 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>0.04023836156760643</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8">
-        <v>0.04470974551808571</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>46</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.03186729054219146</v>
+        <v>0.03328404367275455</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1893,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC8">
-        <v>0.03499910050479597</v>
+        <v>0.03592409846496573</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1917,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>11</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="AL8">
-        <v>0.03171138080859701</v>
+        <v>0.03407884032247219</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1941,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AU8">
-        <v>0.03443697461052188</v>
+        <v>0.03607886163894249</v>
       </c>
       <c r="AV8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1965,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
+        <v>11</v>
+      </c>
+      <c r="BC8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BC8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="BD8">
-        <v>0.03164542015969899</v>
+        <v>0.03455723204807068</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1989,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BM8">
-        <v>0.03419644769765651</v>
+        <v>0.0361428462926288</v>
       </c>
       <c r="BN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2013,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2021,7 +2006,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03148094901568024</v>
+        <v>0.0006378755029440618</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2039,19 +2024,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.03782869109468024</v>
+        <v>0.03501381635571958</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2063,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.03032675502728432</v>
+        <v>0.03305909253729315</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2087,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC9">
-        <v>0.03465088299224759</v>
+        <v>0.03588427125967589</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2111,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9">
-        <v>0.03066734371855446</v>
+        <v>0.03399503600744659</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2135,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AU9">
-        <v>0.03407175456900614</v>
+        <v>0.03603808795502774</v>
       </c>
       <c r="AV9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2159,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9">
-        <v>0.031172686198407</v>
+        <v>0.03446928974554517</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2183,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BM9">
-        <v>0.03382395247838241</v>
+        <v>0.03610168130046235</v>
       </c>
       <c r="BN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2207,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2215,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03109868587922997</v>
+        <v>0.0006372030667750652</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2233,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.03756605974078484</v>
+        <v>0.03497955612438682</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2257,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.02984027012783996</v>
+        <v>0.03298410882547268</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2281,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AC10">
-        <v>0.0340625655542351</v>
+        <v>0.03544617200148772</v>
       </c>
       <c r="AD10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2305,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1082</v>
+        <v>35</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AL10">
-        <v>0.03045642663658365</v>
+        <v>0.03337888990931898</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -2329,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AU10">
-        <v>0.03229211447327424</v>
+        <v>0.0355895774319655</v>
       </c>
       <c r="AV10">
         <v>2</v>
@@ -2353,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD10">
-        <v>0.03095829358356238</v>
+        <v>0.03350192441776461</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2377,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BM10">
-        <v>0.03247211744432317</v>
+        <v>0.03564888321614578</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2401,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2409,13 +2394,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02315877501661192</v>
+        <v>0.000629806268916102</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2427,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.02975385778993204</v>
+        <v>0.03460269357972649</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2451,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.02947287682467086</v>
+        <v>0.03215928799544752</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -2475,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC11">
-        <v>0.03187143667939459</v>
+        <v>0.0351872951671038</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2499,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.03037205980379533</v>
+        <v>0.03307318854216496</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -2523,19 +2508,19 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AU11">
-        <v>0.03174094178991348</v>
+        <v>0.03532454848651964</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2547,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.03087253653762454</v>
+        <v>0.0334139821152391</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -2571,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BM11">
-        <v>0.03237322087509501</v>
+        <v>0.0356488663866314</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -2595,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2603,13 +2588,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02299949870975764</v>
+        <v>0.0006291338327471052</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2621,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.02906146603875326</v>
+        <v>0.03438000207606356</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2645,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.0292701747832357</v>
+        <v>0.03208430428362706</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -2669,61 +2654,61 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AB12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12">
+        <v>0.03490850473007495</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>62</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL12">
+        <v>0.03298938422713935</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>22</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC12">
-        <v>0.03095340869176706</v>
-      </c>
-      <c r="AD12">
-        <v>2</v>
-      </c>
-      <c r="AE12">
-        <v>2</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
-      <c r="AH12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>63</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL12">
-        <v>0.03032987638740118</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-      <c r="AN12">
-        <v>1</v>
-      </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>13</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AU12">
-        <v>0.0317077399679575</v>
+        <v>0.03531001027017228</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2741,19 +2726,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12">
-        <v>0.03082965801465561</v>
+        <v>0.03306221290513708</v>
       </c>
       <c r="BE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2765,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BM12">
-        <v>0.03233935767334283</v>
+        <v>0.03562830072006255</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2789,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2797,13 +2782,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02293578818701593</v>
+        <v>0.0006264440880711187</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2815,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.02282505221127286</v>
+        <v>0.03414018045673427</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2839,19 +2824,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.02918909396666165</v>
+        <v>0.03178436943634518</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2863,91 +2848,91 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC13">
+        <v>0.03449035978099663</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL13">
+        <v>0.03265416696703693</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
+        <v>2</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>26</v>
+      </c>
+      <c r="AT13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC13">
-        <v>0.03026326745420431</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>5</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL13">
-        <v>0.03032987638740118</v>
-      </c>
-      <c r="AM13">
-        <v>1</v>
-      </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
-      <c r="AO13">
-        <v>1</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR13">
+      <c r="AU13">
+        <v>0.0352896234282149</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>4</v>
+      </c>
+      <c r="BC13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AT13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU13">
-        <v>0.03164133632404555</v>
-      </c>
-      <c r="AV13">
-        <v>1</v>
-      </c>
-      <c r="AW13">
-        <v>1</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>8</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="BD13">
-        <v>0.03082965801465561</v>
+        <v>0.03261840854805644</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2959,13 +2944,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BM13">
-        <v>0.03227163126983844</v>
+        <v>0.0355871357278961</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2983,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2991,13 +2976,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02290393292564508</v>
+        <v>0.0006217370348881421</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3009,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.022801176633646</v>
+        <v>0.02966936033416808</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3033,19 +3018,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.02914855355837462</v>
+        <v>0.03125948345360191</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -3057,85 +3042,85 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC14">
+        <v>0.0344704461783517</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL14">
+        <v>0.03206753676185772</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>33</v>
+      </c>
+      <c r="AT14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC14">
-        <v>0.03023161131669991</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI14">
+      <c r="AU14">
+        <v>0.03524884974430015</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA14">
         <v>6</v>
       </c>
-      <c r="AK14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL14">
-        <v>0.03032987638740118</v>
-      </c>
-      <c r="AM14">
-        <v>1</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>13</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU14">
-        <v>0.0315749326801336</v>
-      </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>10</v>
-      </c>
       <c r="BC14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD14">
-        <v>0.03082965801465561</v>
+        <v>0.03253865193443716</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3153,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BM14">
-        <v>0.03220390486633406</v>
+        <v>0.0355048057435632</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3185,13 +3170,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02290393292564508</v>
+        <v>0.0006136678008601822</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3203,13 +3188,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.02275342547839229</v>
+        <v>0.0296522302185017</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3227,19 +3212,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.02914855355837462</v>
+        <v>0.03035967891175629</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -3251,61 +3236,61 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AB15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC15">
+        <v>0.03443061897306187</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL15">
+        <v>0.03106188498155047</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>2</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>45</v>
+      </c>
+      <c r="AT15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC15">
-        <v>0.03016829904169112</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>1</v>
-      </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>8</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL15">
-        <v>0.03028769297100701</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>14</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AU15">
-        <v>0.0315749326801336</v>
+        <v>0.03516730237647066</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3326,16 +3311,16 @@
         <v>10</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.03078677949168669</v>
+        <v>0.03244661678745854</v>
       </c>
       <c r="BE15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -3347,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BM15">
-        <v>0.03220390486633406</v>
+        <v>0.03546364075139675</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3371,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3379,13 +3364,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02290393292564508</v>
+        <v>0.0005928222796212858</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3397,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.02270567432313858</v>
+        <v>0.02961796998716894</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3421,19 +3406,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.02914855355837462</v>
+        <v>0.02803518384532178</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -3445,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC16">
-        <v>0.03010498676668232</v>
+        <v>0.0343509645624822</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3475,7 +3460,7 @@
         <v>24</v>
       </c>
       <c r="AL16">
-        <v>0.03024550955461286</v>
+        <v>0.03100759655947326</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3493,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AU16">
-        <v>0.03144212539230969</v>
+        <v>0.03512652869255591</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3517,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD16">
-        <v>0.03074390096871777</v>
+        <v>0.03174717121170761</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3541,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BM16">
-        <v>0.03206845205932529</v>
+        <v>0.03546364075139675</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3565,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3573,13 +3558,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.02287207766427422</v>
+        <v>0.0005578555988334596</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3591,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.02270567432313858</v>
+        <v>0.02954944952450343</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3618,10 +3603,10 @@
         <v>10</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T17">
-        <v>0.02910801315008759</v>
+        <v>0.02774397337357321</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3639,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC17">
-        <v>0.03010498676668232</v>
+        <v>0.03431113735719237</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3663,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL17">
-        <v>0.03024550955461286</v>
+        <v>0.03025335772424283</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3687,79 +3672,79 @@
         <v>0</v>
       </c>
       <c r="AR17">
+        <v>9</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU17">
+        <v>0.03512652869255591</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>12</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD17">
+        <v>0.03174717121170761</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>9</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM17">
+        <v>0.03540189326314708</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17">
         <v>15</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU17">
-        <v>0.03134251992644176</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>17</v>
-      </c>
-      <c r="BC17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD17">
-        <v>0.03074390096871777</v>
-      </c>
-      <c r="BE17">
-        <v>1</v>
-      </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
-      <c r="BG17">
-        <v>1</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>15</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM17">
-        <v>0.03196686245406872</v>
-      </c>
-      <c r="BN17">
-        <v>1</v>
-      </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>1</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3767,7 +3752,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.02284022240290337</v>
+        <v>0.0004290608069203557</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3785,133 +3770,133 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <v>0.02951518929317068</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18">
+        <v>0.027069119967189</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC18">
+        <v>0.03431113735719237</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL18">
+        <v>0.03025335772424283</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>9</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU18">
+        <v>0.03506536816668378</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18">
         <v>15</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18">
-        <v>0.02261017201263116</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T18">
-        <v>0.02906747274180056</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>15</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC18">
-        <v>0.02997836221666473</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>14</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL18">
-        <v>0.03010841098561893</v>
-      </c>
-      <c r="AM18">
-        <v>2</v>
-      </c>
-      <c r="AN18">
-        <v>2</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>64</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU18">
-        <v>0.03132926163655093</v>
-      </c>
-      <c r="AV18">
-        <v>2</v>
-      </c>
-      <c r="AW18">
-        <v>2</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>63</v>
-      </c>
       <c r="BC18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD18">
-        <v>0.03052950835387315</v>
+        <v>0.0315712866066566</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3929,19 +3914,19 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="BM18">
-        <v>0.03193299925231653</v>
+        <v>0.03538129393754948</v>
       </c>
       <c r="BN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP18">
         <v>0</v>
@@ -3953,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3961,7 +3946,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.02284022240290337</v>
+        <v>0.0004230088813993858</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3979,175 +3964,175 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19">
+        <v>0.02951518929317068</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>0.027069119967189</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC19">
+        <v>0.03425139654925762</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>15</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="AK19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL19">
+        <v>0.03008574909419163</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>11</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU19">
+        <v>0.0350391326991164</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>62</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD19">
+        <v>0.0315712866066566</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>11</v>
+      </c>
+      <c r="BL19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K19">
-        <v>0.0225385452797506</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="BM19">
+        <v>0.03536072827098063</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS19">
         <v>17</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19">
-        <v>0.02906747274180056</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>15</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC19">
-        <v>0.02988339380415154</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>17</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL19">
-        <v>0.03003459247264205</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>20</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU19">
-        <v>0.03130931810448578</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>18</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD19">
-        <v>0.03044375130793531</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>1</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>22</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM19">
-        <v>0.03193299925231653</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>1</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4155,7 +4140,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02268094609604909</v>
+        <v>0.0004230088813993858</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4173,175 +4158,175 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20">
+        <v>0.02946379894617153</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20">
+        <v>0.02691915254354806</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC20">
+        <v>0.03421156934396778</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>17</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL20">
+        <v>0.03008574909419163</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>11</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU20">
+        <v>0.03502459448276904</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>17</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD20">
+        <v>0.03148334430413109</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BF20">
+        <v>1</v>
+      </c>
+      <c r="BG20">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>12</v>
+      </c>
+      <c r="BL20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K20">
-        <v>0.02251466970212375</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>18</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20">
-        <v>0.02886477070036541</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>20</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC20">
-        <v>0.02985173766664714</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>18</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL20">
-        <v>0.02995022563985373</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>1</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
+      <c r="BM20">
+        <v>0.0352578157905645</v>
+      </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS20">
         <v>22</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU20">
-        <v>0.03130931810448578</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>18</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD20">
-        <v>0.03035799426199746</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>1</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>24</v>
-      </c>
-      <c r="BL20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM20">
-        <v>0.03186527284881215</v>
-      </c>
-      <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>1</v>
-      </c>
-      <c r="BR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4349,7 +4334,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02261723557330738</v>
+        <v>0.0004216640090613924</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4367,175 +4352,175 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>0.02942953871483878</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21">
+        <v>0.02691915254354806</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>11</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC21">
+        <v>0.0341120013307432</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>22</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL21">
+        <v>0.03000194477916603</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>12</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU21">
+        <v>0.03492266027298217</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>22</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD21">
+        <v>0.03139130915715247</v>
+      </c>
+      <c r="BE21">
+        <v>2</v>
+      </c>
+      <c r="BF21">
+        <v>2</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>45</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM21">
+        <v>0.03509313899238432</v>
+      </c>
+      <c r="BN21">
+        <v>2</v>
+      </c>
+      <c r="BO21">
+        <v>2</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS21">
         <v>62</v>
-      </c>
-      <c r="K21">
-        <v>0.02251466970212375</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>18</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21">
-        <v>0.02878368988379135</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>22</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC21">
-        <v>0.02985173766664714</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>18</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL21">
-        <v>0.02986585880706541</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>24</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU21">
-        <v>0.03124291446057383</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>20</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD21">
-        <v>0.03031511573902854</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>1</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>25</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM21">
-        <v>0.03179754644530776</v>
-      </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>1</v>
-      </c>
-      <c r="BR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4543,7 +4528,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.02255352505056567</v>
+        <v>0.0004216640090613924</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4561,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.02246691854687004</v>
+        <v>0.02934388813650688</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4585,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T22">
-        <v>0.02870260906721729</v>
+        <v>0.02684416883172759</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4609,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC22">
-        <v>0.02978842539163835</v>
+        <v>0.03391286530429402</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4633,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL22">
-        <v>0.02982367539067125</v>
+        <v>0.0294991188890124</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4657,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AU22">
-        <v>0.03117651081666188</v>
+        <v>0.03471879185340843</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4681,13 +4666,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD22">
-        <v>0.03022935869309069</v>
+        <v>0.03095569048897806</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4705,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BM22">
-        <v>0.03166209363829899</v>
+        <v>0.03505199082973225</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4729,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4737,7 +4722,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.02252166978919481</v>
+        <v>0.0004209915728923958</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4755,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.02241916739161633</v>
+        <v>0.0291725869798431</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4779,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T23">
-        <v>0.02866206865893026</v>
+        <v>0.02639426656080479</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4803,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC23">
-        <v>0.02972511311662955</v>
+        <v>0.03375355648313469</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4827,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL23">
-        <v>0.02973930855788293</v>
+        <v>0.02874488005378197</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4854,10 +4839,10 @@
         <v>27</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AU23">
-        <v>0.03104370352883797</v>
+        <v>0.03455569711774943</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4875,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD23">
-        <v>0.03014360164715284</v>
+        <v>0.03016420976624851</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4899,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BM23">
-        <v>0.03156050403304242</v>
+        <v>0.03488733086106645</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4923,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4931,7 +4916,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0224579592664531</v>
+        <v>0.0004169569558784158</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4949,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.02232366508110891</v>
+        <v>0.02903554605451206</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4973,13 +4958,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T24">
-        <v>0.0285809878423562</v>
+        <v>0.02571941315442057</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5000,10 +4985,10 @@
         <v>27</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC24">
-        <v>0.02959848856661196</v>
+        <v>0.03349467964875076</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5021,19 +5006,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AL24">
-        <v>0.02965494172509461</v>
+        <v>0.02846395121575677</v>
       </c>
       <c r="AM24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24">
         <v>1</v>
@@ -5045,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AU24">
-        <v>0.03094409806297004</v>
+        <v>0.03429066817230356</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5069,19 +5054,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="BD24">
-        <v>0.03001603628687992</v>
+        <v>0.02954861364856996</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>1</v>
@@ -5093,31 +5078,31 @@
         <v>0</v>
       </c>
       <c r="BJ24">
+        <v>34</v>
+      </c>
+      <c r="BL24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BL24" s="1" t="s">
+      <c r="BM24">
+        <v>0.03461975841198452</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>1</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS24">
         <v>53</v>
-      </c>
-      <c r="BM24">
-        <v>0.03149008459350962</v>
-      </c>
-      <c r="BN24">
-        <v>2</v>
-      </c>
-      <c r="BO24">
-        <v>2</v>
-      </c>
-      <c r="BP24">
-        <v>0</v>
-      </c>
-      <c r="BQ24">
-        <v>1</v>
-      </c>
-      <c r="BR24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS24">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5125,7 +5110,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02239424874371139</v>
+        <v>0.0004109050303574459</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5143,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.02225203834822835</v>
+        <v>0.02881285455084914</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5167,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25">
-        <v>0.02849990702578214</v>
+        <v>0.0251945271716773</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5191,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC25">
-        <v>0.02950352015409877</v>
+        <v>0.03335528443023634</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5215,19 +5200,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.02960220998888901</v>
+        <v>0.02815824984860275</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>1</v>
@@ -5239,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AU25">
-        <v>0.03084449259710211</v>
+        <v>0.03414796027860195</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5263,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD25">
-        <v>0.02975769494043254</v>
+        <v>0.02954861364856996</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5287,13 +5272,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BM25">
-        <v>0.03145891442778585</v>
+        <v>0.03447568093940195</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5311,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5319,7 +5304,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02210755139137369</v>
+        <v>0.0004061979771744693</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5337,157 +5322,157 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>34</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26">
+        <v>0.02869294374118449</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>60</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26">
+        <v>0.0251945271716773</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>34</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26">
+        <v>0.0330764939932075</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>74</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL26">
+        <v>0.02815824984860275</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>34</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU26">
+        <v>0.0338625444911987</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>74</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD26">
+        <v>0.02919684443846794</v>
+      </c>
+      <c r="BE26">
+        <v>1</v>
+      </c>
+      <c r="BF26">
+        <v>1</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
         <v>38</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26">
-        <v>0.02218041161534778</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>32</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26">
-        <v>0.02813504335119887</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>38</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC26">
-        <v>0.02940855174158557</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
-      </c>
-      <c r="AH26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>32</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL26">
-        <v>0.02927529097754717</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>1</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>38</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU26">
-        <v>0.03014725433602661</v>
-      </c>
-      <c r="AV26">
-        <v>1</v>
-      </c>
-      <c r="AW26">
-        <v>1</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>53</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD26">
-        <v>0.02971481641746361</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>1</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>39</v>
-      </c>
       <c r="BL26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BM26">
-        <v>0.03074778719098983</v>
+        <v>0.0341875259942368</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5505,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5513,7 +5498,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.02207569613000284</v>
+        <v>0.0004061979771744693</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5531,13 +5516,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.02167902448518384</v>
+        <v>0.02845312212185519</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5555,13 +5540,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T27">
-        <v>0.02809450294291184</v>
+        <v>0.02489459232439543</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5579,19 +5564,19 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AC27">
-        <v>0.02874377285399322</v>
+        <v>0.02560856734964408</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5603,13 +5588,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>53</v>
+        <v>1089</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL27">
-        <v>0.02923310756115301</v>
+        <v>0.02782303258850033</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5627,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AU27">
-        <v>0.02991484158233478</v>
+        <v>0.02299635772791821</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5651,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>60</v>
+        <v>607</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BD27">
-        <v>0.02954330232558793</v>
+        <v>0.02919684443846794</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5675,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BM27">
-        <v>0.03051074477872448</v>
+        <v>0.02321705558187785</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5699,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>60</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5707,7 +5692,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02194827508451942</v>
+        <v>0.0004035082324984826</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5725,13 +5710,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.02151189544179586</v>
+        <v>0.01932277047167529</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5749,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>60</v>
+        <v>607</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T28">
-        <v>0.02793234130976371</v>
+        <v>0.02489459232439543</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5773,13 +5758,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AC28">
-        <v>0.02852217989146243</v>
+        <v>0.02246254378346663</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5797,13 +5782,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>60</v>
+        <v>607</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL28">
-        <v>0.02906437389557637</v>
+        <v>0.02782303258850033</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5821,13 +5806,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU28">
-        <v>0.02981523611646684</v>
+        <v>0.0225274603628986</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5845,19 +5830,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>63</v>
+        <v>630</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="BD28">
-        <v>0.02950149401125284</v>
+        <v>0.02866919062331491</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>1</v>
@@ -5869,13 +5854,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BM28">
-        <v>0.03040915517346791</v>
+        <v>0.02274365817196368</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5893,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>63</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5901,7 +5886,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02191641982314856</v>
+        <v>0.0004035082324984826</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5919,13 +5904,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.0214402687089153</v>
+        <v>0.01892877781134858</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -5943,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>63</v>
+        <v>630</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T29">
-        <v>0.02789180090147669</v>
+        <v>0.02444469005347262</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5970,10 +5955,10 @@
         <v>44</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC29">
-        <v>0.02842721147894924</v>
+        <v>0.02200453092263353</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -5991,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>63</v>
+        <v>630</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL29">
-        <v>0.0290221904791822</v>
+        <v>0.02732020669834671</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6018,10 +6003,10 @@
         <v>44</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU29">
-        <v>0.02958282336277501</v>
+        <v>0.02185469457830524</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6039,19 +6024,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>70</v>
+        <v>663</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="BD29">
-        <v>0.029500423802619</v>
+        <v>0.02866509777886179</v>
       </c>
       <c r="BE29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG29">
         <v>1</v>
@@ -6063,13 +6048,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BM29">
-        <v>0.03017211276120257</v>
+        <v>0.02206443580121725</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6087,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>70</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6095,7 +6080,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02108818302750632</v>
+        <v>0.0003994736154845027</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6113,157 +6098,157 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>44</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30">
+        <v>0.01836348399435807</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>663</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30">
+        <v>0.02413603083065743</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>128</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC30">
+        <v>0.02134738203535126</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>663</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL30">
+        <v>0.02410612683442539</v>
+      </c>
+      <c r="AM30">
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <v>2</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>128</v>
+      </c>
+      <c r="AT30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30">
-        <v>0.02127313966552731</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="AU30">
+        <v>0.02087612616435128</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>711</v>
+      </c>
+      <c r="BC30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD30">
+        <v>0.02409209804753549</v>
+      </c>
+      <c r="BE30">
+        <v>2</v>
+      </c>
+      <c r="BF30">
+        <v>2</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>128</v>
+      </c>
+      <c r="BL30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T30">
-        <v>0.02683775028601391</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>70</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC30">
-        <v>0.02820561851641845</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>70</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL30">
-        <v>0.02792542165293404</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>1</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>70</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU30">
-        <v>0.02951641971886306</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
-      <c r="AY30">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>72</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD30">
-        <v>0.028385582205427</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>1</v>
-      </c>
-      <c r="BH30">
-        <v>0</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>70</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="BM30">
-        <v>0.03010438635769819</v>
+        <v>0.02107647598922245</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6281,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>72</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6289,7 +6274,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.02013252518638065</v>
+        <v>0.0003604723176826965</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6307,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.0212253885102736</v>
+        <v>0.01754123844237189</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6331,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>711</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.025621538037403</v>
+        <v>0.02009563476788546</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6355,13 +6340,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC31">
-        <v>0.02814230624140966</v>
+        <v>0.02039152910839523</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6379,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>72</v>
+        <v>711</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.02665991916110924</v>
+        <v>0.02245955642686171</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6403,19 +6388,19 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AU31">
-        <v>0.0294500160749511</v>
+        <v>0.02062546873989744</v>
       </c>
       <c r="AV31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -6427,13 +6412,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>74</v>
+        <v>1089</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.02709922651635931</v>
+        <v>0.02356853707683557</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6451,19 +6436,19 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="BM31">
-        <v>0.03003665995419381</v>
+        <v>0.01856527683095397</v>
       </c>
       <c r="BN31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BO31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -6475,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>74</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6483,7 +6468,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01997324887952638</v>
+        <v>0.0003597998815136998</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6501,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.02117763735501989</v>
+        <v>0.01469763924175301</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6525,13 +6510,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>74</v>
+        <v>877</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.02541883599596785</v>
+        <v>0.02002065105606499</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6549,13 +6534,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC32">
-        <v>0.02807899396640086</v>
+        <v>0.01708587106933897</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6573,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>74</v>
+        <v>877</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL32">
-        <v>0.02644900207913844</v>
+        <v>0.02237575211183611</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6597,13 +6582,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AU32">
-        <v>0.022544037108108</v>
+        <v>0.01749191039942714</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6621,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>282</v>
+        <v>877</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD32">
-        <v>0.0268848339015147</v>
+        <v>0.02348059477431006</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6645,13 +6630,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BM32">
-        <v>0.02299311398973799</v>
+        <v>0.01765978163940709</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6669,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>282</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6677,7 +6662,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01971840678855953</v>
+        <v>0.0002683485625301543</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6695,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.01621151720863417</v>
+        <v>0.01325870952577719</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6719,13 +6704,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>282</v>
+        <v>961</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.02509451272967161</v>
+        <v>0.009822866248481327</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6743,13 +6728,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC33">
-        <v>0.02149451736548612</v>
+        <v>0.01541312844716593</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6767,13 +6752,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>282</v>
+        <v>961</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL33">
-        <v>0.02611153474798516</v>
+        <v>0.01097836526835405</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6791,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AU33">
-        <v>0.0191574512685984</v>
+        <v>0.0157794156750077</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6815,13 +6800,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>384</v>
+        <v>961</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD33">
-        <v>0.02654180571776332</v>
+        <v>0.01152044163084127</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6839,13 +6824,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BM33">
-        <v>0.01953906741101446</v>
+        <v>0.01593085196841619</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6863,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>384</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6871,7 +6856,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01898573577702985</v>
+        <v>0.000180259424391592</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6889,13 +6874,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.01377620829069501</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6913,13 +6898,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>384</v>
+        <v>1735</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T34">
-        <v>0.02416208333906992</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6937,13 +6922,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC34">
-        <v>0.01826559134003754</v>
+        <v>0</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -6961,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>384</v>
+        <v>1735</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL34">
-        <v>0.02514131617091947</v>
+        <v>0</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6985,19 +6970,19 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AU34">
-        <v>0.0186929623445881</v>
+        <v>0</v>
       </c>
       <c r="AV34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -7009,13 +6994,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>1082</v>
+        <v>1735</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD34">
-        <v>0.02555559968947809</v>
+        <v>0</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7033,19 +7018,19 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="BM34">
-        <v>0.01211649388861048</v>
+        <v>0</v>
       </c>
       <c r="BN34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="BO34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="BP34">
         <v>0</v>
@@ -7057,493 +7042,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="35" spans="1:71">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>0.01153160461624968</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>370</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35">
-        <v>0.004321479550460654</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>780</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T35">
-        <v>0.01467562779990488</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>370</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC35">
-        <v>0.005729760888296004</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-      <c r="AH35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>780</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL35">
-        <v>0.01527039673468599</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>370</v>
-      </c>
-      <c r="AT35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU35">
-        <v>0.006009529774031734</v>
-      </c>
-      <c r="AV35">
-        <v>1</v>
-      </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
-      <c r="AY35">
-        <v>1</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <v>780</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD35">
-        <v>0.01552202531475011</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>1</v>
-      </c>
-      <c r="BH35">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>370</v>
-      </c>
-      <c r="BL35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM35">
-        <v>0.006129239517146648</v>
-      </c>
-      <c r="BN35">
-        <v>1</v>
-      </c>
-      <c r="BO35">
-        <v>1</v>
-      </c>
-      <c r="BP35">
-        <v>0</v>
-      </c>
-      <c r="BQ35">
-        <v>1</v>
-      </c>
-      <c r="BR35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS35">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="1:71">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>732</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36">
-        <v>0.0002387557762685416</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>951</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>732</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC36">
-        <v>0.0003165613750439741</v>
-      </c>
-      <c r="AD36">
-        <v>1</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>951</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>732</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU36">
-        <v>0.0003320182195597607</v>
-      </c>
-      <c r="AV36">
-        <v>1</v>
-      </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>1</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>951</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>1</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>732</v>
-      </c>
-      <c r="BL36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM36">
-        <v>0.0003386320175219099</v>
-      </c>
-      <c r="BN36">
-        <v>1</v>
-      </c>
-      <c r="BO36">
-        <v>1</v>
-      </c>
-      <c r="BP36">
-        <v>0</v>
-      </c>
-      <c r="BQ36">
-        <v>1</v>
-      </c>
-      <c r="BR36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:71">
-      <c r="J37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>961</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>1</v>
-      </c>
-      <c r="AE37">
-        <v>1</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>1</v>
-      </c>
-      <c r="AH37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>961</v>
-      </c>
-      <c r="AT37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>1</v>
-      </c>
-      <c r="AW37">
-        <v>1</v>
-      </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>1</v>
-      </c>
-      <c r="AZ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>961</v>
-      </c>
-      <c r="BL37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM37">
-        <v>0</v>
-      </c>
-      <c r="BN37">
-        <v>1</v>
-      </c>
-      <c r="BO37">
-        <v>1</v>
-      </c>
-      <c r="BP37">
-        <v>0</v>
-      </c>
-      <c r="BQ37">
-        <v>1</v>
-      </c>
-      <c r="BR37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS37">
-        <v>961</v>
+        <v>1735</v>
       </c>
     </row>
   </sheetData>
